--- a/amostra_dados.xlsx
+++ b/amostra_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.gabriel_intelip\Desktop\Projeto Auditoria de Frete - Python\Teste Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB547EE-1B57-4FD3-85F5-6DC0C887B828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2E9075-BB04-4736-8626-62C5E12E882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2A74AB21-CBE7-4800-947F-B9CC953E9FC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11360" uniqueCount="9065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11364" uniqueCount="9068">
   <si>
     <t>Diferença</t>
   </si>
@@ -27231,13 +27231,22 @@
   </si>
   <si>
     <t>Pedido Teste 2839</t>
+  </si>
+  <si>
+    <t>Pedido Teste 2840</t>
+  </si>
+  <si>
+    <t>R$ 14.53</t>
+  </si>
+  <si>
+    <t>R$ 15.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27261,6 +27270,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -27319,7 +27336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -27333,6 +27350,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27667,10 +27685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7E3342-44EE-4E7E-8FC8-6E7730327AE2}">
-  <dimension ref="A1:D2840"/>
+  <dimension ref="A1:D2844"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A2840"/>
+    <sheetView tabSelected="1" topLeftCell="A2826" workbookViewId="0">
+      <selection activeCell="D2844" sqref="D2844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -67441,6 +67459,23 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2841" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2841" t="s">
+        <v>9065</v>
+      </c>
+      <c r="B2841" s="4" t="s">
+        <v>9066</v>
+      </c>
+      <c r="C2841" s="4" t="s">
+        <v>9067</v>
+      </c>
+      <c r="D2841" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2844" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
